--- a/data/currentyear.xlsx
+++ b/data/currentyear.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E451F10-6029-450A-A76A-486AC7E2997E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1134CA7-978A-4BAE-A5EA-0C256526C3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -346,7 +346,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -355,7 +355,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
     </row>
   </sheetData>
